--- a/input/investment & growth.xlsx
+++ b/input/investment & growth.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Course &amp; Studies\Software\work area\Repos\Investment Analysis - A Statistical Perspective\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16C0E66-13F1-49CF-A928-840D9C3F59A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFE1870-8ED9-434A-A037-F6995A72BF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="2" xr2:uid="{C4A2AE80-0629-47E2-9608-DEE60C8860FC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="3" xr2:uid="{C4A2AE80-0629-47E2-9608-DEE60C8860FC}"/>
   </bookViews>
   <sheets>
     <sheet name="investment" sheetId="1" r:id="rId1"/>
     <sheet name="growth" sheetId="2" r:id="rId2"/>
     <sheet name="lend" sheetId="3" r:id="rId3"/>
+    <sheet name="Expenses Ratio" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>month</t>
   </si>
@@ -96,6 +97,42 @@
   </si>
   <si>
     <t>selva</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>SBI Bank cash</t>
+  </si>
+  <si>
+    <t>HDFC bank cash</t>
+  </si>
+  <si>
+    <t>Slice bank cash</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Mutual Fund</t>
+  </si>
+  <si>
+    <t>Actual_Amount</t>
+  </si>
+  <si>
+    <t>Calculated_Amount</t>
   </si>
 </sst>
 </file>
@@ -1712,7 +1749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7261D81C-14C3-4651-958B-9522008238E0}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1805,4 +1842,163 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EC60E7-B4EC-48BC-B22D-EBBAAEC611C5}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.1328125" customWidth="1"/>
+    <col min="4" max="4" width="19.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>73620</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <f>$C2%*$B$2</f>
+        <v>73620</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>15000</v>
+      </c>
+      <c r="C3">
+        <f>ROUND($B3*100/$B$2,2)</f>
+        <v>20.37</v>
+      </c>
+      <c r="D3">
+        <f>$C3%*$B$2</f>
+        <v>14996.394000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>3000</v>
+      </c>
+      <c r="C4">
+        <f>ROUND($B4*100/$B$2,2)</f>
+        <v>4.07</v>
+      </c>
+      <c r="D4">
+        <f>$C4%*$B$2</f>
+        <v>2996.3339999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D10" si="0">$C5%*$B$2</f>
+        <v>2208.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>2208.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>2208.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>2944.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>35000</v>
+      </c>
+      <c r="C9">
+        <f>ROUND($B9*100/$B$2,2)</f>
+        <v>47.54</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>34998.947999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <f>100-SUM($C$3:$C$9)</f>
+        <v>15.02000000000001</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>11057.724000000007</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/input/investment & growth.xlsx
+++ b/input/investment & growth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Course &amp; Studies\Software\work area\Repos\Investment Analysis - A Statistical Perspective\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFE1870-8ED9-434A-A037-F6995A72BF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0F9131-E8CD-40BD-9817-FD0F4E79295D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="3" xr2:uid="{C4A2AE80-0629-47E2-9608-DEE60C8860FC}"/>
   </bookViews>
@@ -496,7 +496,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1120,20 +1120,29 @@
       <c r="B29">
         <v>2025</v>
       </c>
+      <c r="C29">
+        <v>1103.5</v>
+      </c>
+      <c r="D29">
+        <v>6000</v>
+      </c>
+      <c r="E29">
+        <v>3000</v>
+      </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="J29">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="K29">
         <f t="shared" si="1"/>
-        <v>270</v>
+        <v>10413.5</v>
       </c>
       <c r="L29">
         <f>SUM($K$2:K29)</f>
-        <v>9842.52</v>
+        <v>19986.02</v>
       </c>
     </row>
   </sheetData>
@@ -1147,7 +1156,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1720,24 +1729,24 @@
         <v>2025</v>
       </c>
       <c r="C29">
-        <v>5216.07</v>
+        <v>6404.3</v>
       </c>
       <c r="D29">
-        <v>1353</v>
+        <v>7340</v>
       </c>
       <c r="E29">
-        <v>3016.82</v>
+        <v>6020</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>3016.82</v>
+        <v>6020</v>
       </c>
       <c r="J29">
-        <v>718.02</v>
+        <v>737.63</v>
       </c>
       <c r="K29">
         <f t="shared" si="1"/>
-        <v>10303.91</v>
+        <v>20501.93</v>
       </c>
     </row>
   </sheetData>
@@ -1849,7 +1858,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/input/investment & growth.xlsx
+++ b/input/investment & growth.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Course &amp; Studies\Software\work area\Repos\Investment Analysis - A Statistical Perspective\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0F9131-E8CD-40BD-9817-FD0F4E79295D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8449EC5B-7E84-43DC-884C-AF27FDD9C8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="3" xr2:uid="{C4A2AE80-0629-47E2-9608-DEE60C8860FC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{C4A2AE80-0629-47E2-9608-DEE60C8860FC}"/>
   </bookViews>
   <sheets>
     <sheet name="investment" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>month</t>
   </si>
@@ -96,43 +96,46 @@
     <t>srivatsan</t>
   </si>
   <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>SBI Bank cash</t>
+  </si>
+  <si>
+    <t>HDFC bank cash</t>
+  </si>
+  <si>
+    <t>Slice bank cash</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Mutual Fund</t>
+  </si>
+  <si>
+    <t>Actual_Amount</t>
+  </si>
+  <si>
+    <t>Calculated_Amount</t>
+  </si>
+  <si>
+    <t>Yearly</t>
+  </si>
+  <si>
     <t>selva</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Ratio</t>
-  </si>
-  <si>
-    <t>Income</t>
-  </si>
-  <si>
-    <t>Rent</t>
-  </si>
-  <si>
-    <t>Expenses</t>
-  </si>
-  <si>
-    <t>SBI Bank cash</t>
-  </si>
-  <si>
-    <t>HDFC bank cash</t>
-  </si>
-  <si>
-    <t>Slice bank cash</t>
-  </si>
-  <si>
-    <t>Stock</t>
-  </si>
-  <si>
-    <t>Mutual Fund</t>
-  </si>
-  <si>
-    <t>Actual_Amount</t>
-  </si>
-  <si>
-    <t>Calculated_Amount</t>
   </si>
 </sst>
 </file>
@@ -176,9 +179,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,10 +497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C87A14-6A9F-41A8-BEE2-B2380A2C9357}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -574,11 +581,11 @@
         <v>2023</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H29" si="0">SUM($E3:$G3)</f>
+        <f t="shared" ref="H3:H30" si="0">SUM($E3:$G3)</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K29" si="1">SUM(C3,D3,H3,I3,J3)</f>
+        <f t="shared" ref="K3:K30" si="1">SUM(C3,D3,H3,I3,J3)</f>
         <v>0</v>
       </c>
       <c r="L3">
@@ -1143,6 +1150,44 @@
       <c r="L29">
         <f>SUM($K$2:K29)</f>
         <v>19986.02</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>2026</v>
+      </c>
+      <c r="C30">
+        <v>5094</v>
+      </c>
+      <c r="D30">
+        <v>13600</v>
+      </c>
+      <c r="E30">
+        <v>74000</v>
+      </c>
+      <c r="F30">
+        <v>14000</v>
+      </c>
+      <c r="G30">
+        <v>14000</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>102000</v>
+      </c>
+      <c r="J30">
+        <v>310</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>121004</v>
+      </c>
+      <c r="L30">
+        <f>SUM($K$2:K30)</f>
+        <v>140990.01999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1153,10 +1198,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288C2376-176B-41C0-B0AF-F291DE90A08A}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1229,11 +1277,11 @@
         <v>248.53</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H29" si="0">SUM($E3:$G3)</f>
+        <f t="shared" ref="H3:H30" si="0">SUM($E3:$G3)</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K29" si="1">SUM(C3:D3,H3,I3,J3)</f>
+        <f t="shared" ref="K3:K30" si="1">SUM(C3:D3,H3,I3,J3)</f>
         <v>248.53</v>
       </c>
     </row>
@@ -1747,6 +1795,40 @@
       <c r="K29">
         <f t="shared" si="1"/>
         <v>20501.93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>2026</v>
+      </c>
+      <c r="C30">
+        <v>11835.42</v>
+      </c>
+      <c r="D30">
+        <v>21049</v>
+      </c>
+      <c r="E30" s="2">
+        <v>80364.44</v>
+      </c>
+      <c r="F30">
+        <v>14022.24</v>
+      </c>
+      <c r="G30">
+        <v>14019.2</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>108405.88</v>
+      </c>
+      <c r="J30">
+        <v>1167.8</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>142458.09999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1759,22 +1841,22 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1831,18 +1913,18 @@
         <v>17</v>
       </c>
       <c r="D5">
-        <v>10000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>1000</v>
@@ -1855,10 +1937,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EC60E7-B4EC-48BC-B22D-EBBAAEC611C5}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1867,144 +1949,184 @@
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="3" max="3" width="16.1328125" customWidth="1"/>
     <col min="4" max="4" width="19.73046875" customWidth="1"/>
+    <col min="5" max="5" width="15.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
       <c r="B2">
-        <v>73620</v>
+        <v>73500</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
       <c r="D2">
         <f>$C2%*$B$2</f>
-        <v>73620</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+        <v>73500</v>
+      </c>
+      <c r="E2">
+        <f>$D2*12</f>
+        <v>882000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="C3">
         <f>ROUND($B3*100/$B$2,2)</f>
-        <v>20.37</v>
+        <v>8.16</v>
       </c>
       <c r="D3">
         <f>$C3%*$B$2</f>
-        <v>14996.394000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+        <v>5997.6</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E10" si="0">$D3*12</f>
+        <v>71971.200000000012</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="C4">
         <f>ROUND($B4*100/$B$2,2)</f>
-        <v>4.07</v>
+        <v>6.8</v>
       </c>
       <c r="D4">
         <f>$C4%*$B$2</f>
-        <v>2996.3339999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+        <v>4998</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>59976</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D10" si="0">$C5%*$B$2</f>
-        <v>2208.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+        <f t="shared" ref="D5:D10" si="1">$C5%*$B$2</f>
+        <v>2205</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>26460</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>2208.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>2205</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>26460</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>2208.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>2205</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>26460</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>2944.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>2940</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>35280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="C9">
         <f>ROUND($B9*100/$B$2,2)</f>
-        <v>47.54</v>
+        <v>54.42</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>34998.947999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>39998.700000000004</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>479984.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <f>100-SUM($C$3:$C$9)</f>
-        <v>15.02000000000001</v>
+        <v>17.620000000000005</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>11057.724000000007</v>
+        <f t="shared" si="1"/>
+        <v>12950.700000000004</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>155408.40000000005</v>
       </c>
     </row>
   </sheetData>
